--- a/loaded_influencer_data/paigeofme/paigeofme_video.xlsx
+++ b/loaded_influencer_data/paigeofme/paigeofme_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7484547071538646294</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -554,1417 +554,1703 @@
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7483981170867277078</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@paigeofme/video/7468987527442058528</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>488</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@paigeofme/photo/7489494160538422550</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>345</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@paigeofme/video/7488755758587186454</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>424</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>체육관 여자들, 이거 타야 해! 나는 대부분의 사람들이 크레아틴을 복용한다는 것을 알고 있지만 사실 나는 전에 그것을 먹어본 적이 없다😇 한 달 정도 복용했는데 솔직히 근육 회복이 훨씬 나아졌어요! 나한테는 돔이 없어😅 ATM도 15파운드 미만!</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10.61320754716981</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.424528301886792</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.188679245283019</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.415094339622642</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@paigeofme/video/7488666490862914838</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>388</v>
+      </c>
+      <c r="C7" t="n">
+        <v>288</v>
+      </c>
+      <c r="D7" t="n">
+        <v>186</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>나는 모든 사람들이 그냥 계속하라고 말하는 것을 알고 있지만 그것은 너무 사실입니다🫶 나는 최근에 몹시 위축된 것을 느꼈기 때문에 정말로 유료 거래를 받는 것이 더 행복할 수 없습니다😍 UGC는 TikTok tbh와 마찬가지로 JOURNEY 😅🤣 하지만 우리 모두를 위한 공간이 있어 🤍</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>122.1649484536083</v>
+      </c>
+      <c r="I7" t="n">
+        <v>74.22680412371135</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.93814432989691</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.381443298969072</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@paigeofme/video/7488420739553545494</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>351</v>
+      </c>
+      <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D3" t="n">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D8" t="n">
+        <v>31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>나는 내 모든 것이 이것을 느끼고 있다고 생각한다😅 우리는 당신을 정말 사랑합니다 TikTok 하지만 어서. 또한 카다시안 사운드를 사랑 🤣</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.24501424501424</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.831908831908832</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.994301994301994</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@paigeofme/video/7488001177028742422</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>43200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>69</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>다른 사람!? #ugcuk #ugc #bloopers #ugcbloopers #bts #ugcbts #contentcreator</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2175925925925926</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1597222222222222</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.05787037037037036</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@paigeofme/video/7487523579375013142</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>384</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>5</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>My FAVE moisturiser @SKIN saints® ☀️🍊I use this everyday &amp; it’s perfection with SPF 30 😎
-#skinsaints</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>17.71117166212534</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.62397820163488</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.087193460490464</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.362397820163488</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@paigeofme/video/7468987527442058528</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>476</v>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>나는 이 트렌드를 좋아한다! 모두가 어디에서 왔는지 보는 것이 너무 재미있어요! #hampshire #westsussex #viralvideo</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>20.57291666666666</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.0625</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.510416666666667</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.302083333333333</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@paigeofme/video/7486571900118813974</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>429</v>
+      </c>
+      <c r="C11" t="n">
+        <v>42</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Peak adult life putting the bins out 😅
 #comedy #viralsound #30s #adultlife #adulting #girlsintheir30s</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>6.722689075630252</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.042016806722689</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.680672268907563</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4201680672268908</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@paigeofme/video/7486571900118813974</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>429</v>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Peak adult life putting the bins out 😅
-#comedy #viralsound #30s #adultlife #adulting #girlsintheir30s</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>15.15151515151515</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>9.79020979020979</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.361305361305361</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>1.165501165501166</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7486164437687127318</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>433</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>58</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>13</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Just girlies living for the content, coffee &amp; outfits. @Hol ✨ thank you for being an angel and living so close 🤣😅🫶</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>16.3972286374134</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>13.39491916859122</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.002309468822171</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>0.6928406466512702</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7485817985534299414</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>425</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>15</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Bloopers take 3 😅 honestly the words that come out of my mouth 😅
 #bloopers #ugc #contentcreator</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>10.8235294117647</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>7.294117647058823</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.529411764705882</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>0.7058823529411765</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7485450544438381847</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>420</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>44</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>17</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Sorry Xaden, it can’t happen.
 #booktok #fourthwing #ironflame #pov</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>14.52380952380953</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>10.47619047619048</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.047619047619047</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>0.4761904761904762</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7484923749427416342</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>535</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>23</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Sorry Xaden, it can’t happen.
 #booktok #fourthwing #ironflame #pov</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>13.64485981308411</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>9.345794392523365</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.299065420560748</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>1.121495327102804</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/photo/7484301316278324502</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>450</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>112</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Who’s coming? 🍷 ☀️
 #summer #pubgarden</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>24.88888888888889</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.888888888888889</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>0.6666666666666667</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7483905094312824086</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>641</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>64</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>23</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>8</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Life is life ing in the BEST way ✨
 I’m only quiet when I’m overwhelmed 😅
 #youresoquiet #tiktokgirls</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>13.57254290171607</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>9.984399375975039</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.58814352574103</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>1.24804992199688</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/photo/7483573363877612822</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>538</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>49</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>27</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>When you’re vibing your outfit 😍
 #ootd #whatiwore #ugc #fashionugc</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>14.12639405204461</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>9.107806691449815</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.018587360594796</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.7434944237918215</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7482834329102454038</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>421</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>64</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>22</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>@VIEVE and @Jamie Genevieve I love you ❤️
 Super skin nova is all I wear on my skin + spf and mascara hehe 🫶</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>20.42755344418052</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>15.20190023752969</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>5.225653206650831</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>0.4750593824228029</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7482327223127641366</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>554</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>34</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>29</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Juggling life is hard so well done YOU 👏🏼
 Learning &amp; growing &amp; having a side hustle isn’t easy.
 Top tip: ORGANISATION!! Can’t express it enough, write lists and keep a track of everything!</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>11.37184115523466</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>6.137184115523466</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>5.234657039711191</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>0.1805054151624549</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7481951391057972502</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>170</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>56</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>35</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>The struggle is real 🤣
 #comedy #pov #lowviews #lowviewsproblem</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>53.52941176470588</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>32.94117647058823</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>20.58823529411764</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>1.764705882352941</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7481734294361214230</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>237</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>107</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>60</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>6</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Actually blows my mind I can say this 😍🥹
 For anyone worrying or doubting, YOU WILL GET THERE ❤️
 UGC is a wild ride, but remember why you started and why you love it 🫶</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>70.46413502109705</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>45.14767932489451</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>25.31645569620253</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>2.531645569620253</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7481339912587971863</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>646</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>45</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>PMS, periods, life, just so much harder since being 30 🤣
 #pms #periods #30s #girlsintheir30s #period</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>9.442724458204333</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>6.96594427244582</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>2.476780185758514</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>0.3095975232198143</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7480986757408804118</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>345</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>22</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Literally everything your body could need in one powder 😅✨🌸
 @SHREDDY greens for the win my friends. Such a life saver not having to remember every single thing!</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>8.695652173913043</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>6.376811594202898</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.318840579710145</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>0.2898550724637681</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7480609247735221526</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>372</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>42</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>18</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Grab ya cuppa, let’s chat and get ready with me 🥰
 As a girly who’s SO BAD at makeup!
 #grwm #contentcreator</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>16.12903225806452</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>11.29032258064516</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.838709677419355</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>0.5376344086021506</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7480243817296301334</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>312</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>46</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>33</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Grab ya cuppa, let’s chat and get ready with me 🥰
 As a girly who’s SO BAD at makeup!
 #grwm #contentcreator</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>25.32051282051282</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>14.74358974358974</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>10.57692307692308</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>1.602564102564102</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7479739172350070038</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>388</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>56</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>16</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>What’s your outfit? Always comfort for me 😅
 Let’s go grab tea @asos 🫶
 #letsgograbcoffee #brunchoutfit</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>18.55670103092784</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>14.43298969072165</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.123711340206185</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>1.030927835051546</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7479351438745914646</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>492</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>37</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>9</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>What’s your outfit? Always comfort for me 😅
 Let’s go grab tea @asos 🫶
 #letsgograbcoffee #brunchoutfit</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>9.349593495934959</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>7.520325203252034</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>1.829268292682927</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>0.6097560975609756</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7478977402681527575</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>163</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>43</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>11</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>We love to be busy, but bye bye social life 🤣
 #ugc #contentcreator #busylife #sociallife</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>33.12883435582822</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>26.38036809815951</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>6.748466257668712</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>0.6134969325153374</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/photo/7478799988018089239</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>488</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>40</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>12</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Finally filmed my protein smoothie for you!
 @Home Bargains #proteindynamix salted caramel peanut 👌🏻
 Let me know any other proteiny things you want to know!</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>10.65573770491803</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>8.196721311475409</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.459016393442623</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>0.4098360655737705</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7478765986192133398</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>342</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>43</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>12</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Finally filmed my protein smoothie for you!
 @Home Bargains #proteindynamix salted caramel peanut 👌🏻
 Let me know any other proteiny things you want to know!</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>16.08187134502924</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>12.57309941520468</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.508771929824561</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>0.5847953216374269</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7478418704460467478</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>422</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>40</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>7</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>#creatorsearchinsights
 The fitness lifestyle has me 🤣 as does chocolate 😍
 #fitnesslifestyle #gymmotivation</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>11.13744075829384</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>9.478672985781991</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1.658767772511848</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>0.2369668246445498</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7478055702251064598</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>348</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>55</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>23</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>We’ve all been there!
 #comedy #pov #contentcreator #ugccommunity #ugc #ugcuk</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>22.41379310344828</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>15.80459770114943</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>6.609195402298851</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>1.149425287356322</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7478002012081179926</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>487</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>60</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>54</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Where are youuuu guys? 🤣
 If you love any of…. the gym, walking, reading, social media, taking the pressure off, coffee (well tea I hate coffee) and currently love is blind 🤣</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>23.40862422997947</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>12.32032854209445</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>11.08829568788501</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>0.8213552361396305</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7477644254345579798</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>452</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>58</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>35</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>6</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Honestly takes me forever to get the angles 🤣
 #bloopers #angles #ugc #ugcuk #relatable #ugccreator</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>20.57522123893805</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>12.83185840707965</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>7.743362831858406</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>1.327433628318584</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7477282945330367766</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>422</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>63</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>23</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>5</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>I live for my gym bag!
 @Wellgard collagen @myprotein clear whey
@@ -1972,1048 +2258,792 @@
 @Bose US headphones</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>20.37914691943128</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>14.92890995260663</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>5.450236966824645</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>1.184834123222749</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7477127111866682646</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>428</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>41</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>25</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>5</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Walking, working, living, reading, exercising 🥰
 Can’t believe it’s March, bring on chocolate and Easter 🐣
 Also a lot of grief this month, 6 months without Dad and we lost on of our family dogs 💔🤍</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>15.42056074766355</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>9.579439252336448</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>5.841121495327103</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>1.168224299065421</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/photo/7476757780049923330</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>331</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>27</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>7</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>6</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Walking, working, living, reading, exercising 🥰
 Can’t believe it’s March, bring on chocolate and Easter 🐣
 Also a lot of grief this month, 6 months without Dad and we lost on of our family dogs 💔🤍</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>10.27190332326284</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>8.157099697885197</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.114803625377644</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>1.812688821752266</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7476535166282796310</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>304</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>62</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>44</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>5</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>I want to see all your content 😍
 Support &amp; learn from you lovely UGC creators ✨
 #ugc #ugcuk #ugccreators</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>34.86842105263158</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>20.39473684210526</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>14.47368421052632</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>1.644736842105263</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7476187830469905686</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>392</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>42</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>20</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>4</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>We live for the sun ☀️
 #comedy #contentcreator #sun #summer #ugccommunity #ugc #ugcuk #30s</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>15.81632653061225</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>5.102040816326531</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>1.020408163265306</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7476157626145901846</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>493</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>45</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>18</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>FYI - I wore these to the gym because I completely forgot about them 😅 couldn’t see it on my face!
 I’ve never used blemish patches before so if I’m honest I can’t compare BUT after using these for a few days on my big red spots they’ve definitely disappeared quicker then usual!</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>12.7789046653144</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>9.127789046653144</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.651115618661258</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.4056795131845842</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7475820282867879190</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>350</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>66</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>44</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>5</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>We love a sugar daddy 😅
 #fyp #viral #comedy #ugc #ugcuk #ugccommunity #contentcreator #tiktokperks</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>31.42857142857143</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>18.85714285714286</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>12.57142857142857</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>1.428571428571429</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7475783302469799190</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>429</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>75</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>25</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Chaos but I liked my outfit 😅
 Someone walked in at the end 🤣
 #outfitoftheday #fashion #ugc #ugcuk</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>23.31002331002331</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>17.48251748251748</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>5.827505827505827</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>0.4662004662004662</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7475406248918191383</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>460</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>62</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>32</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>6</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Never too late to look after your skin! ❤️ these products.
 If you’re a content creator sign up using FRANP02 🫶</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>20.43478260869565</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>13.47826086956522</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>6.956521739130435</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>1.304347826086957</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7475060525097897238</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>378</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>40</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>8</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Personally this what I would do now, knowing what I know now. UGC is all about learning 24/7, I’m pretty sure I know about 1/4 of what there is to know!</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>12.6984126984127</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>10.58201058201058</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.116402116402116</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>0.7936507936507936</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/photo/7474665069716999446</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>450</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>23</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>22</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>6</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Personally this what I would do now, knowing what I know now. UGC is all about learning 24/7, I’m pretty sure I know about 1/4 of what there is to know!</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>10</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>5.111111111111112</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>4.888888888888889</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7474353573355146518</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>423</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>277</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>179</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>15</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>I know everyone says just keep going but it’s so true 🫶 I’ve felt hella deflated recently so genuinely couldn’t be happier getting a paid deal 😍</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>107.8014184397163</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>65.48463356973994</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>42.31678486997636</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>3.546099290780142</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7474163385605639446</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>1801</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>50</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>31</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>7</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>I know everyone says just keep going but it’s so true 🫶 I’ve felt hella deflated recently so genuinely couldn’t be happier getting a paid deal 😍</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>4.497501388117713</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>2.77623542476402</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>1.721265963353692</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.3886729594669628</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7473992176293137686</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>593</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>69</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>25</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>4</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Anyone else!?
 #ugcuk #ugc #bloopers #ugcbloopers #bts #ugcbts #contentcreator</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>15.85160202360877</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>11.63575042158516</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>4.215851602023609</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>0.6745362563237773</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/video/7473920376880286998</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>442</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>54</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>25</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>5</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>I love this trend! So fun to see where everyone’s from!
 #hampshire #westsussex #viralvideo #viral_video</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>17.87330316742081</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>12.21719457013575</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>5.656108597285068</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>1.131221719457014</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@paigeofme/photo/7473472100401990934</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>470</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>66</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>37</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>9</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>#creatorsearchinsights
 I can’t express enough how important it is to do what you love &amp; not worry about judgement or other people.</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>21.91489361702128</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>14.04255319148936</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>7.872340425531915</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>1.914893617021276</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@paigeofme/video/7473179987944852758</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>486</v>
-      </c>
-      <c r="C46" t="n">
-        <v>35</v>
-      </c>
-      <c r="D46" t="n">
-        <v>15</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Save the fishies 🐠 🌊 🤍
-What an easy way to do your part and your washing at the same time 😋
-Thank you</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10.2880658436214</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7.20164609053498</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.08641975308642</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.6172839506172839</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@paigeofme/video/7472828645841669398</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>393</v>
-      </c>
-      <c r="C47" t="n">
-        <v>62</v>
-      </c>
-      <c r="D47" t="n">
-        <v>40</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Will let you know as I try each product, hopefully you’ll see me with GLOWING skin soon 😉✨
-Use code FRANP02 for discount 😘</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>25.95419847328244</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15.77608142493639</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>10.17811704834605</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.272264631043257</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@paigeofme/video/7472440131509652758</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>384</v>
-      </c>
-      <c r="C48" t="n">
-        <v>62</v>
-      </c>
-      <c r="D48" t="n">
-        <v>40</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Will let you know as I try each product, hopefully you’ll see me with GLOWING skin soon 😉✨
-Use code FRANP02 for discount 😘</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>26.5625</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16.14583333333334</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>10.41666666666667</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.302083333333333</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@paigeofme/video/7471942958690946326</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>546</v>
-      </c>
-      <c r="C49" t="n">
-        <v>66</v>
-      </c>
-      <c r="D49" t="n">
-        <v>18</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>£3 from @SHEIN UK 🫶 basically got it because I was keeping my rings in a purse 🤣🤣 and it was just a pain trying to empty the purse to find them!</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="I49" t="n">
-        <v>12.08791208791209</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.296703296703297</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.7326007326007326</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@paigeofme/video/7471711270324997398</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>454</v>
-      </c>
-      <c r="C50" t="n">
-        <v>46</v>
-      </c>
-      <c r="D50" t="n">
-        <v>28</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Has anyone else tried @VIEVE products!?@SPACE NK
-Will review #superskinnova next ✨🫶
-#vieve #spacenk</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>16.29955947136564</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10.13215859030837</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>6.167400881057269</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.101321585903084</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
         </is>
       </c>
     </row>
